--- a/Pupillometry_Data_Analysis_StarterCode/2ProcessingCodes/Processing/datafiles.xlsx
+++ b/Pupillometry_Data_Analysis_StarterCode/2ProcessingCodes/Processing/datafiles.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Merovitz\Downloads\Pupillometry_Data_Analysis_StarterCode_Tom2\Pupillometry_Data_Analysis_StarterCode\2ProcessingCodes\Processing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFAFFC-BCF2-4D33-B62A-09932CED2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360"/>
+    <workbookView xWindow="2260" yWindow="2250" windowWidth="8900" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -24,13 +30,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>1117_NAPT.mat</t>
+    <t>dp004.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,30 +496,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
     </row>
   </sheetData>
